--- a/biology/Zoologie/Heligmomerus_somalicus/Heligmomerus_somalicus.xlsx
+++ b/biology/Zoologie/Heligmomerus_somalicus/Heligmomerus_somalicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heligmomerus somalicus est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heligmomerus somalicus est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Somalie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Somalie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pocock, 1896 : Report upon the scorpions, spiders, centipedes and millipedes obtained by Mr and Mrs E. Lort. Phillips in the Goolis Mountains inland of Berbera, N. Somaliland. The Annals and magazine of natural history, sér. 6, vol. 18, p. 178-189 (texte intégral).</t>
         </is>
